--- a/ODK-X_surveys/app/config/tables/household_items/forms/household_items/household_items.xlsx
+++ b/ODK-X_surveys/app/config/tables/household_items/forms/household_items/household_items.xlsx
@@ -410,7 +410,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -503,15 +503,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -640,10 +632,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="41.83"/>
@@ -762,11 +754,11 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.15"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -890,7 +882,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.49"/>
@@ -975,10 +967,10 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46.17"/>
   </cols>
@@ -1042,12 +1034,12 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="41.83"/>
@@ -1056,7 +1048,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="54.66"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1085,400 +1077,377 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
+    <row r="2" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-    </row>
-    <row r="3" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+    </row>
+    <row r="3" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-    </row>
-    <row r="4" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24" t="s">
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-    </row>
-    <row r="5" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26"/>
-      <c r="B5" s="24" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="24"/>
+      <c r="B5" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24" t="s">
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="s">
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-    </row>
-    <row r="8" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0"/>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-    </row>
-    <row r="9" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27" t="s">
+      <c r="E9" s="25"/>
+      <c r="F9" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27" t="s">
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0"/>
-      <c r="B10" s="0"/>
-      <c r="C10" s="0"/>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="0"/>
-      <c r="I10" s="0"/>
-    </row>
-    <row r="11" s="30" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="28" t="s">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" s="28" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-    </row>
-    <row r="12" s="25" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" s="10" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="29"/>
+      <c r="B12" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-    </row>
-    <row r="13" s="25" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32" t="s">
+      <c r="F12" s="31"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" s="10" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-    </row>
-    <row r="14" s="25" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="31" t="s">
+      <c r="F13" s="31"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" s="10" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-    </row>
-    <row r="15" s="23" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="0"/>
-      <c r="I15" s="0"/>
-    </row>
-    <row r="16" s="25" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="34" t="s">
+    </row>
+    <row r="16" s="10" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-    </row>
-    <row r="17" s="25" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+    </row>
+    <row r="17" s="10" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="32"/>
+      <c r="B17" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="34" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-    </row>
-    <row r="18" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34" t="s">
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+    </row>
+    <row r="18" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-    </row>
-    <row r="19" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34" t="s">
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+    </row>
+    <row r="19" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34" t="s">
+      <c r="C19" s="32"/>
+      <c r="D19" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-    </row>
-    <row r="20" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34" t="s">
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+    </row>
+    <row r="20" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34" t="s">
+      <c r="C20" s="32"/>
+      <c r="D20" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-    </row>
-    <row r="21" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34" t="s">
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+    </row>
+    <row r="21" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34" t="s">
+      <c r="C21" s="32"/>
+      <c r="D21" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-    </row>
-    <row r="22" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34" t="s">
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+    </row>
+    <row r="22" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34" t="s">
+      <c r="C22" s="32"/>
+      <c r="D22" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-    </row>
-    <row r="23" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34" t="s">
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+    </row>
+    <row r="23" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34" t="s">
+      <c r="C23" s="32"/>
+      <c r="D23" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-    </row>
-    <row r="24" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34" t="s">
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+    </row>
+    <row r="24" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-    </row>
-    <row r="25" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34" t="s">
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+    </row>
+    <row r="25" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34" t="s">
+      <c r="C25" s="32"/>
+      <c r="D25" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-    </row>
-    <row r="26" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34" t="s">
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+    </row>
+    <row r="26" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34" t="s">
+      <c r="C26" s="32"/>
+      <c r="D26" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-    </row>
-    <row r="27" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34" t="s">
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+    </row>
+    <row r="27" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34" t="s">
+      <c r="C27" s="32"/>
+      <c r="D27" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-    </row>
-    <row r="28" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="34" t="s">
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+    </row>
+    <row r="28" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
